--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2557519.169598193</v>
+        <v>2661698.804049266</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>37.84125266805028</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>90.98010614281421</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>135.0788740806009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>164.2491472140561</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>349.8104215840048</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>164.3182418739497</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>52.0785263574582</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>284.558011888792</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.00355165215</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>162.3772445110584</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>9.104297121037412</v>
+        <v>52.15877458398474</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>74.53917159609115</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>117.6579322793536</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>161.9918985650762</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>130.7812597870363</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>140.7215037338436</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444142</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>75.7590545620421</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>108.3106907504111</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.602497644398836</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>21.63824106825054</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>79.69108391904159</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>70.04554881124335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>280.3460310779727</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>177.2982898844084</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>111.5512144998715</v>
+        <v>14.73874327217528</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3177.09166559278</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3177.09166559278</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3177.09166559278</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2824.323010322666</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>912.2308571681123</v>
+        <v>678.6720730524786</v>
       </c>
       <c r="C4" t="n">
-        <v>912.2308571681123</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D4" t="n">
-        <v>762.1142177557765</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E4" t="n">
-        <v>614.2011241733834</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4516,22 +4518,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>1671.555861336874</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.01298720966</v>
+        <v>1416.871373130987</v>
       </c>
       <c r="W4" t="n">
-        <v>1361.01298720966</v>
+        <v>1127.454203094026</v>
       </c>
       <c r="X4" t="n">
-        <v>1133.023436311642</v>
+        <v>899.4646521960087</v>
       </c>
       <c r="Y4" t="n">
-        <v>912.2308571681123</v>
+        <v>678.6720730524786</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.833068744076</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>883.8708262827852</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4571,7 +4573,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2795.806654315204</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.037999045089</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.572240784009</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.432908808198</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>700.1577228956174</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="C7" t="n">
-        <v>531.2215399677106</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1874.689976010252</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1874.689976010252</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1874.689976010252</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1620.005487804365</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1330.588317767405</v>
+        <v>881.8947677952821</v>
       </c>
       <c r="X7" t="n">
-        <v>1102.598766869387</v>
+        <v>881.8947677952821</v>
       </c>
       <c r="Y7" t="n">
-        <v>881.8061877258572</v>
+        <v>661.1021886517519</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>581.1420803965857</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>581.1420803965857</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2535.034709923658</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2144.895377947846</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4951,13 +4953,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.581946954627</v>
+        <v>1682.923033022405</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.581946954627</v>
+        <v>1682.923033022405</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.581946954627</v>
+        <v>1682.923033022405</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.164776917667</v>
+        <v>1393.505862985445</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.164776917667</v>
+        <v>1165.516312087427</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>944.7237329438971</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5029,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,16 +5354,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
         <v>716.6687843969308</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>169.1087555692761</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5494,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>3839.850899059799</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>4391.760629299087</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>577.8620388433919</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C19" t="n">
-        <v>408.925855915485</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1208.292633715179</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X19" t="n">
-        <v>980.3030828171618</v>
+        <v>1042.083634382038</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.5105036736317</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>2913.946970978148</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>3511.3254586047</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>4138.923422159307</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>3307.443412409907</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>3138.507229482</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>2988.390590069664</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400712</v>
+        <v>2840.477496487271</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>2693.587548989361</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3709.884456383676</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>3709.884456383676</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>3489.091877240146</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6002,13 +6004,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6069,13 +6071,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>251.5626541092274</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>746.8882603249859</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
         <v>1344.266747951538</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168617</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362691</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6251,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="K27" t="n">
-        <v>221.3431781811722</v>
+        <v>2565.513299557011</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>3060.838905772769</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>3658.217393399321</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>4285.815356953927</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6457,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,22 +6490,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.71788640035</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639637</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6661,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6682,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6777,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.71788640035</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639637</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>2674.652733893667</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>2526.739640311274</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2526.739640311274</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2359.543541026154</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2359.543541026154</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X34" t="n">
-        <v>1327.139029956954</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y34" t="n">
-        <v>1106.346450813424</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,13 +6964,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>277.5052172074016</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7156,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>1652.71788640035</v>
       </c>
       <c r="O39" t="n">
-        <v>2356.04164637206</v>
+        <v>2204.627616639637</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7333,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7360,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7491,22 +7493,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.71788640035</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639637</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2200.82819813124</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1981.226733154182</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1692.151506498379</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1437.467018292492</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1148.049848255532</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>920.0602973575143</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>699.2677182139842</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
   </sheetData>
@@ -9653,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>7.899650064976726</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>65.75554125013274</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>63.36835372229096</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>124.5310997715148</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>34.74287850523257</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>111.4161395899844</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>176.3785887617859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>178.2123075861799</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>20.48480914828677</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>172.2294825375385</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>59.627595250315</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>172.4465594047864</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>147.3599015160449</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>6.176967258618276</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>3.727996117236216</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>114.1584408891656</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107154</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777158.3171107154</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777158.3171107154</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="E2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="N2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520056</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314476</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314479</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870199.337420704</v>
+        <v>-870199.3374207041</v>
       </c>
       <c r="C6" t="n">
+        <v>458545.4083068889</v>
+      </c>
+      <c r="D6" t="n">
         <v>458545.4083068885</v>
       </c>
-      <c r="D6" t="n">
-        <v>458545.4083068884</v>
-      </c>
       <c r="E6" t="n">
-        <v>208015.2558689491</v>
+        <v>208015.2558689494</v>
       </c>
       <c r="F6" t="n">
         <v>533427.7176763043</v>
       </c>
       <c r="G6" t="n">
-        <v>533427.717676304</v>
+        <v>533427.7176763042</v>
       </c>
       <c r="H6" t="n">
-        <v>533427.7176763045</v>
+        <v>533427.7176763044</v>
       </c>
       <c r="I6" t="n">
-        <v>533427.7176763044</v>
+        <v>533427.7176763046</v>
       </c>
       <c r="J6" t="n">
-        <v>315896.5152790266</v>
+        <v>315896.5152790267</v>
       </c>
       <c r="K6" t="n">
         <v>533427.717676304</v>
       </c>
       <c r="L6" t="n">
+        <v>533427.7176763043</v>
+      </c>
+      <c r="M6" t="n">
+        <v>448372.6897407925</v>
+      </c>
+      <c r="N6" t="n">
         <v>533427.7176763045</v>
       </c>
-      <c r="M6" t="n">
-        <v>448372.6897407924</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>533427.7176763045</v>
+      </c>
+      <c r="P6" t="n">
         <v>533427.7176763043</v>
-      </c>
-      <c r="O6" t="n">
-        <v>533427.7176763043</v>
-      </c>
-      <c r="P6" t="n">
-        <v>533427.717676305</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>166.0767174715699</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>295.2578325132394</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>10.34217394233039</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,16 +27590,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>121.9626909915568</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4.872620036678143</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>163.4340165961852</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>137.6904989739837</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.964986447799049</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.7302900113306</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>244.498801230653</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>210.4446521551318</v>
+        <v>167.3901746921845</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-7.503331289626657e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28858,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29275,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31613,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31843,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>689.3300812557329</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>156.3072281639545</v>
+        <v>436.0678650905996</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601589</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32698,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,22 +32791,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>297.1808238847181</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32813,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,34 +33028,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>279.0775374915864</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33262,37 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>250.3097721075173</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33499,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>250.3097721075173</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33736,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182835</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,16 +33982,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>332.9841464938405</v>
+        <v>485.9276108700249</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34214,31 +34216,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>250.3097721075173</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34451,31 +34453,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>430.4001870301153</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35261,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>557.9883691723996</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>22.33282074962425</v>
+        <v>302.0934576762694</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899036</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802847</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36352,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168383</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>159.3393849103591</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>136.481293047142</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>116.3353646931871</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>116.3353646931871</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134950234</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0097390795103</v>
+        <v>351.9532034556946</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>116.3353646931871</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502411</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121063</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2661698.804049266</v>
+        <v>2657686.194035271</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>298.730729942234</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>90.98010614281421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>90.2454146455313</v>
       </c>
       <c r="U4" t="n">
-        <v>164.2491472140561</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>349.8104215840048</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>329.4281423938637</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380371</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>284.558011888792</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>162.3772445110584</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>183.1642512458429</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>52.15877458398474</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>140.7158229532356</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>114.720561100775</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53917159609115</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>161.9918985650762</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>130.7812597870363</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
-        <v>140.7215037338436</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>108.3106907504111</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>124.9362388746445</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>96.99837838564358</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>21.63824106825054</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>79.69108391904159</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>280.3460310779727</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>177.2982898844084</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>14.73874327217528</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189674</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y2" t="n">
-        <v>1959.379186075721</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>678.6720730524786</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>509.7358901245717</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>359.619250712236</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1644.451679424883</v>
       </c>
       <c r="U4" t="n">
-        <v>1671.555861336874</v>
+        <v>1644.451679424883</v>
       </c>
       <c r="V4" t="n">
-        <v>1416.871373130987</v>
+        <v>1644.451679424883</v>
       </c>
       <c r="W4" t="n">
-        <v>1127.454203094026</v>
+        <v>1355.034509387922</v>
       </c>
       <c r="X4" t="n">
-        <v>899.4646521960087</v>
+        <v>1127.044958489905</v>
       </c>
       <c r="Y4" t="n">
-        <v>678.6720730524786</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223197</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C5" t="n">
-        <v>883.8708262827852</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="D5" t="n">
-        <v>530.5269660969217</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>852.2506193700633</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>441.2647145804557</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287319</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>479.4537238215122</v>
+        <v>463.6594280995005</v>
       </c>
       <c r="C7" t="n">
-        <v>479.4537238215122</v>
+        <v>294.7232451715936</v>
       </c>
       <c r="D7" t="n">
-        <v>479.4537238215122</v>
+        <v>144.6066057592579</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214135</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1383.507193008248</v>
       </c>
       <c r="W7" t="n">
-        <v>881.8947677952821</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X7" t="n">
-        <v>881.8947677952821</v>
+        <v>866.1004720732703</v>
       </c>
       <c r="Y7" t="n">
-        <v>661.1021886517519</v>
+        <v>645.3078929297402</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033361</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>581.1420803965857</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>581.1420803965857</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1682.923033022405</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1682.923033022405</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1682.923033022405</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1393.505862985445</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1165.516312087427</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>944.7237329438971</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4916164683287</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>754.5554335404219</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C16" t="n">
-        <v>634.334587849125</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D16" t="n">
-        <v>484.2179484367892</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E16" t="n">
-        <v>336.3048548543961</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>336.3048548543961</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>169.1087555692761</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3212.252935505192</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>3839.850899059799</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>4391.760629299087</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>639.6425904082686</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>470.7064074803617</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1270.073185280056</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1042.083634382038</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>821.2910552385083</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5761,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>2913.946970978148</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>3511.3254586047</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>4138.923422159307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3307.443412409907</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3138.507229482</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2988.390590069664</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2840.477496487271</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2693.587548989361</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3999.301626420637</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3709.884456383676</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3709.884456383676</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3489.091877240146</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,31 +5986,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>251.5626541092274</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249859</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6138,7 +6138,7 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6150,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,19 +6171,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
         <v>1729.097755135313</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.58852738579</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557011</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.838905772769</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3658.217393399321</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>4285.815356953927</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6381,16 +6381,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,28 +6457,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191924</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.71788640035</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2204.627616639637</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C31" t="n">
-        <v>741.8431516380886</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D31" t="n">
-        <v>591.7265122257528</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E31" t="n">
-        <v>443.8134186433597</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
         <v>317.6151975578602</v>
@@ -6618,16 +6618,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191924</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.71788640035</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2204.627616639637</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2824.769373306003</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>2824.769373306003</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>2674.652733893667</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2526.739640311274</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2526.739640311274</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2359.543541026154</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2359.543541026154</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279773</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136243</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913851</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1607.889809492038</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1318.472639455077</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1090.48308855706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191924</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.71788640035</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639637</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1150.52355647915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1150.52355647915</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7493,19 +7493,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191924</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191924</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.71788640035</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2204.627616639637</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>699.2677182139842</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>530.3315352860773</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2200.82819813124</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1981.226733154182</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1692.151506498379</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1437.467018292492</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1148.049848255532</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>920.0602973575143</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>699.2677182139842</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969311</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>726.955532171245</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0193492433381</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1129.396576145015</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.6039970014847</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>7.899650064976726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>31.71340154579414</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.75554125013274</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>124.5310997715148</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.74287850523257</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
-        <v>111.4161395899844</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>178.2123075861799</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>20.48480914828677</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>59.627595250315</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>172.4465594047864</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>6.176967258618276</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>3.727996117236216</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>210.9709121168619</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="G2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520048</v>
-      </c>
       <c r="K2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314489</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314492</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26435,13 +26435,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26450,7 +26450,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870199.3374207041</v>
+        <v>-870199.337420704</v>
       </c>
       <c r="C6" t="n">
-        <v>458545.4083068889</v>
+        <v>458545.4083068883</v>
       </c>
       <c r="D6" t="n">
-        <v>458545.4083068885</v>
+        <v>458545.4083068883</v>
       </c>
       <c r="E6" t="n">
-        <v>208015.2558689494</v>
+        <v>207667.8766145915</v>
       </c>
       <c r="F6" t="n">
-        <v>533427.7176763043</v>
+        <v>533080.3384219476</v>
       </c>
       <c r="G6" t="n">
-        <v>533427.7176763042</v>
+        <v>533080.3384219473</v>
       </c>
       <c r="H6" t="n">
-        <v>533427.7176763044</v>
+        <v>533080.3384219474</v>
       </c>
       <c r="I6" t="n">
-        <v>533427.7176763046</v>
+        <v>533080.3384219472</v>
       </c>
       <c r="J6" t="n">
-        <v>315896.5152790267</v>
+        <v>315549.1360246699</v>
       </c>
       <c r="K6" t="n">
-        <v>533427.717676304</v>
+        <v>533080.3384219471</v>
       </c>
       <c r="L6" t="n">
-        <v>533427.7176763043</v>
+        <v>533080.3384219474</v>
       </c>
       <c r="M6" t="n">
-        <v>448372.6897407925</v>
+        <v>448025.3104864351</v>
       </c>
       <c r="N6" t="n">
-        <v>533427.7176763045</v>
+        <v>533080.3384219473</v>
       </c>
       <c r="O6" t="n">
-        <v>533427.7176763045</v>
+        <v>533080.3384219474</v>
       </c>
       <c r="P6" t="n">
-        <v>533427.7176763043</v>
+        <v>533080.3384219472</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>66.54216182877354</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>295.2578325132394</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>129.3035346306379</v>
       </c>
       <c r="U4" t="n">
-        <v>121.9626909915568</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>4.872620036678143</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>81.4935832595898</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.12041821276546</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1.964986447799049</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>244.498801230653</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>186.5668494326261</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>167.3901746921845</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>436.0678650905996</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601589</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,40 +32785,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>297.1808238847181</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>279.0775374915864</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>250.3097721075173</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>250.3097721075173</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,40 +33733,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>139.5228722182835</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,28 +33970,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>485.9276108700249</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34213,22 +34213,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>250.3097721075173</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,40 +34444,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>430.4001870301153</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>302.0934576762694</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802847</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>159.3393849103591</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>136.481293047142</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>116.3353646931871</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>116.3353646931871</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>8.181160134950234</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556946</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>116.3353646931871</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>291.8458072502411</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2657686.194035271</v>
+        <v>2659446.724338057</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>298.730729942234</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>374.3724651321487</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>157.782207034717</v>
       </c>
       <c r="T4" t="n">
-        <v>90.2454146455313</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>94.81275980261439</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>329.4281423938637</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>77.31354443380371</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292598</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>183.1642512458429</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145753</v>
       </c>
     </row>
     <row r="9">
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380417</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347168</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673027</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E16" t="n">
-        <v>114.720561100775</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>35.23631477519695</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.99837838564358</v>
+        <v>135.3135037226517</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>94.91529601901387</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2277.953133796416</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796416</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2277.953133796416</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="3">
@@ -4403,10 +4403,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>2246.382089998688</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>2077.445907070781</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>1927.329267658445</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>1779.416174076052</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>3166.229854907436</v>
       </c>
       <c r="T4" t="n">
-        <v>1644.451679424883</v>
+        <v>3166.229854907436</v>
       </c>
       <c r="U4" t="n">
-        <v>1644.451679424883</v>
+        <v>3166.229854907436</v>
       </c>
       <c r="V4" t="n">
-        <v>1644.451679424883</v>
+        <v>3166.229854907436</v>
       </c>
       <c r="W4" t="n">
-        <v>1355.034509387922</v>
+        <v>2876.812684870475</v>
       </c>
       <c r="X4" t="n">
-        <v>1127.044958489905</v>
+        <v>2648.823133972458</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>2428.030554828928</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.038871968308</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="C5" t="n">
-        <v>1238.038871968308</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1238.038871968308</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>852.2506193700633</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>441.2647145804557</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539435</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008241</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032429</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,7 +4661,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.41198488674</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463.6594280995005</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>294.7232451715936</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>144.6066057592579</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4731,19 +4731,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214135</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008248</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971288</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732703</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297402</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4819,37 +4819,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>294.723245171594</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>144.6066057592583</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218339</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,19 +5038,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5123,7 +5123,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5257,10 +5257,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.5467179762944</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>815.6105350483875</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>665.4938956360518</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2411.370846433597</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2228.516012088501</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2008.914547111442</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1719.83932045564</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1465.154832249753</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1175.737662212792</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>636.6680198981028</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C31" t="n">
-        <v>467.7318369701959</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578602</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>818.3164847283425</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7496,22 +7496,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194143</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E16" t="n">
-        <v>31.71340154579414</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>31.13893193492473</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>121.5862749664512</v>
+        <v>83.27114962944304</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>45.37941682721002</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777158.3171107154</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107154</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914264</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914263</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="H2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520047</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551204</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314486</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90354.06702314486</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314489</v>
       </c>
-      <c r="C4" t="n">
-        <v>90354.06702314492</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.06702314485</v>
-      </c>
       <c r="E4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26447,7 +26447,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870199.337420704</v>
+        <v>-870199.3374207041</v>
       </c>
       <c r="C6" t="n">
         <v>458545.4083068883</v>
@@ -26530,40 +26530,40 @@
         <v>458545.4083068883</v>
       </c>
       <c r="E6" t="n">
-        <v>207667.8766145915</v>
+        <v>207980.5179435131</v>
       </c>
       <c r="F6" t="n">
-        <v>533080.3384219476</v>
+        <v>533392.9797508689</v>
       </c>
       <c r="G6" t="n">
-        <v>533080.3384219473</v>
+        <v>533392.9797508687</v>
       </c>
       <c r="H6" t="n">
-        <v>533080.3384219474</v>
+        <v>533392.9797508685</v>
       </c>
       <c r="I6" t="n">
-        <v>533080.3384219472</v>
+        <v>533392.9797508687</v>
       </c>
       <c r="J6" t="n">
-        <v>315549.1360246699</v>
+        <v>315861.7773535912</v>
       </c>
       <c r="K6" t="n">
-        <v>533080.3384219471</v>
+        <v>533392.9797508689</v>
       </c>
       <c r="L6" t="n">
-        <v>533080.3384219474</v>
+        <v>533392.9797508685</v>
       </c>
       <c r="M6" t="n">
-        <v>448025.3104864351</v>
+        <v>448337.9518153566</v>
       </c>
       <c r="N6" t="n">
-        <v>533080.3384219473</v>
+        <v>533392.9797508686</v>
       </c>
       <c r="O6" t="n">
-        <v>533080.3384219474</v>
+        <v>533392.9797508686</v>
       </c>
       <c r="P6" t="n">
-        <v>533080.3384219472</v>
+        <v>533392.9797508686</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>66.54216182877354</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>11.86547352390488</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>31.98681829672492</v>
       </c>
       <c r="T4" t="n">
-        <v>129.3035346306379</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>270.4601319683932</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>81.4935832595898</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12041821276546</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>186.5668494326261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.4435131414783</v>
       </c>
     </row>
     <row r="9">
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.120418212765</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911122</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-5.377319120776078e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31396,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31445,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31463,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>400.5469039565762</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34216,10 +34216,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34234,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>257.9506595121318</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
